--- a/data/trans_orig/P14B19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B19-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1C4E30F-974A-46B9-8FAE-301D450E7260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C347CB-8F63-4F61-9F10-D83014057043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{398AA428-7718-4786-8CD8-63699595D8C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13B0CF87-FC75-459B-B3BD-C115252FEE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="425">
   <si>
     <t>Población cuyas varices en las piernas le limita en 2012 (Tasa respuesta: 4,73%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>85,45%</t>
   </si>
   <si>
-    <t>32,32%</t>
+    <t>31,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,19 +94,16 @@
     <t>67,41%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>48,14%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>14,55%</t>
@@ -115,25 +112,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,68%</t>
+    <t>68,1%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
+    <t>51,86%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -160,10 +154,10 @@
     <t>44,91%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>25,29%</t>
@@ -184,10 +178,10 @@
     <t>55,09%</t>
   </si>
   <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,19 +196,19 @@
     <t>41,16%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -223,19 +217,19 @@
     <t>58,84%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>62,14%</t>
   </si>
   <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -244,49 +238,49 @@
     <t>78,9%</t>
   </si>
   <si>
-    <t>20,38%</t>
+    <t>19,7%</t>
   </si>
   <si>
     <t>50,19%</t>
   </si>
   <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
   </si>
   <si>
     <t>53,8%</t>
   </si>
   <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>79,62%</t>
+    <t>80,3%</t>
   </si>
   <si>
     <t>49,81%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -298,16 +292,16 @@
     <t>41,2%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>40,43%</t>
   </si>
   <si>
-    <t>20,54%</t>
+    <t>23,41%</t>
   </si>
   <si>
     <t>60,64%</t>
@@ -319,10 +313,10 @@
     <t>58,8%</t>
   </si>
   <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
   </si>
   <si>
     <t>59,57%</t>
@@ -331,7 +325,7 @@
     <t>39,36%</t>
   </si>
   <si>
-    <t>79,46%</t>
+    <t>76,59%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -343,19 +337,19 @@
     <t>40,39%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>37,01%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -364,19 +358,19 @@
     <t>59,61%</t>
   </si>
   <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -394,19 +388,19 @@
     <t>52,62%</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>52,55%</t>
   </si>
   <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>47,97%</t>
@@ -421,73 +415,73 @@
     <t>47,38%</t>
   </si>
   <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
   </si>
   <si>
     <t>47,51%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
   </si>
   <si>
     <t>46,93%</t>
   </si>
   <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
   </si>
   <si>
     <t>47,0%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
   </si>
   <si>
     <t>52,49%</t>
   </si>
   <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -502,19 +496,19 @@
     <t>15,08%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>12,78%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -523,19 +517,19 @@
     <t>84,92%</t>
   </si>
   <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>87,22%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -553,10 +547,10 @@
     <t>72,0%</t>
   </si>
   <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -574,46 +568,46 @@
     <t>28,0%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -622,19 +616,19 @@
     <t>31,5%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
   </si>
   <si>
     <t>26,02%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -643,241 +637,241 @@
     <t>68,5%</t>
   </si>
   <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>73,98%</t>
   </si>
   <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>45,95%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
   <si>
     <t>54,05%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
   </si>
   <si>
     <t>46,69%</t>
   </si>
   <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
   </si>
   <si>
     <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
@@ -886,37 +880,37 @@
     <t>21,21%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>6,02%</t>
@@ -928,19 +922,19 @@
     <t>33,55%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
   </si>
   <si>
     <t>28,06%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>93,98%</t>
@@ -952,271 +946,262 @@
     <t>66,45%</t>
   </si>
   <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
   </si>
   <si>
     <t>71,94%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>41,39%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>58,61%</t>
   </si>
   <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>53,43%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>39,68%</t>
   </si>
   <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>46,57%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>60,32%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>18,92%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>81,08%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>73,68%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>51,28%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
+    <t>28,36%</t>
   </si>
   <si>
     <t>48,72%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>63,33%</t>
   </si>
   <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
+    <t>71,64%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>23,13%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
+    <t>22,78%</t>
+  </si>
+  <si>
     <t>33,73%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>76,87%</t>
   </si>
   <si>
     <t>72,03%</t>
@@ -1225,106 +1210,109 @@
     <t>66,27%</t>
   </si>
   <si>
+    <t>77,22%</t>
+  </si>
+  <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>53,13%</t>
+    <t>47,81%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>46,87%</t>
+    <t>52,19%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>71,89%</t>
   </si>
   <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>30,96%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>69,04%</t>
   </si>
   <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
   </si>
   <si>
     <t>70,31%</t>
   </si>
   <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F90357-FAA4-41C3-8F59-6619E8FE732F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C79EB2-F0B7-4334-80C3-A3D80FB95239}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2018,7 +2006,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -2027,13 +2015,13 @@
         <v>26718</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,13 +2036,13 @@
         <v>1041</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -2063,13 +2051,13 @@
         <v>9960</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2078,13 +2066,13 @@
         <v>11001</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2087,13 @@
         <v>7153</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -2114,13 +2102,13 @@
         <v>30566</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -2129,18 +2117,18 @@
         <v>37719</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2152,10 +2140,10 @@
         <v>3098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2167,13 +2155,13 @@
         <v>5299</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2182,13 +2170,13 @@
         <v>8397</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,13 +2191,13 @@
         <v>1049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2218,13 +2206,13 @@
         <v>9253</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2233,13 +2221,13 @@
         <v>10302</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,13 +2242,13 @@
         <v>4147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -2269,13 +2257,13 @@
         <v>14552</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -2284,18 +2272,18 @@
         <v>18699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2307,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2322,13 +2310,13 @@
         <v>25149</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2337,13 +2325,13 @@
         <v>25149</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,10 +2349,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -2373,13 +2361,13 @@
         <v>35950</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -2388,13 +2376,13 @@
         <v>41283</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,13 +2397,13 @@
         <v>5333</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -2424,13 +2412,13 @@
         <v>61099</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>59</v>
@@ -2439,18 +2427,18 @@
         <v>66432</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2462,10 +2450,10 @@
         <v>4238</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2477,13 +2465,13 @@
         <v>18745</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2492,13 +2480,13 @@
         <v>22984</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2501,13 @@
         <v>1134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2528,13 +2516,13 @@
         <v>18602</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -2543,13 +2531,13 @@
         <v>19736</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,13 +2552,13 @@
         <v>5372</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -2579,13 +2567,13 @@
         <v>37347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -2594,18 +2582,18 @@
         <v>42720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2617,10 +2605,10 @@
         <v>1057</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2632,13 +2620,13 @@
         <v>9211</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2647,13 +2635,13 @@
         <v>10268</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,10 +2656,10 @@
         <v>1978</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -2683,13 +2671,13 @@
         <v>13148</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2698,13 +2686,13 @@
         <v>15127</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2707,13 @@
         <v>3035</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2734,13 +2722,13 @@
         <v>22359</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -2749,18 +2737,18 @@
         <v>25395</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2772,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -2787,13 +2775,13 @@
         <v>27842</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2802,13 +2790,13 @@
         <v>27843</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,10 +2814,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -2838,13 +2826,13 @@
         <v>41089</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -2853,13 +2841,13 @@
         <v>47379</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2862,13 @@
         <v>6291</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -2889,13 +2877,13 @@
         <v>68931</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -2904,18 +2892,18 @@
         <v>75222</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2927,13 +2915,13 @@
         <v>4392</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -2942,13 +2930,13 @@
         <v>31255</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -2957,13 +2945,13 @@
         <v>35647</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2966,13 @@
         <v>4050</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -2993,13 +2981,13 @@
         <v>28143</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3008,13 +2996,13 @@
         <v>32193</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3017,13 @@
         <v>8442</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -3044,13 +3032,13 @@
         <v>59398</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>63</v>
@@ -3059,13 +3047,13 @@
         <v>67840</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3070,13 @@
         <v>18898</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>129</v>
@@ -3097,13 +3085,13 @@
         <v>138108</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>146</v>
@@ -3112,13 +3100,13 @@
         <v>157005</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3121,13 @@
         <v>20875</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>144</v>
@@ -3148,13 +3136,13 @@
         <v>156145</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>162</v>
@@ -3163,13 +3151,13 @@
         <v>177021</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3172,13 @@
         <v>39773</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>273</v>
@@ -3199,13 +3187,13 @@
         <v>294253</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>308</v>
@@ -3214,18 +3202,18 @@
         <v>334026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3249,7 +3237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C02861-6011-4672-A68E-A4554309B1CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE43579D-035E-481E-83CB-793C30909956}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3266,7 +3254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3373,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3388,13 +3376,13 @@
         <v>3056</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3403,13 +3391,13 @@
         <v>3056</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,10 +3415,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -3439,13 +3427,13 @@
         <v>17208</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3454,13 +3442,13 @@
         <v>20866</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3463,13 @@
         <v>3657</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3490,13 +3478,13 @@
         <v>20264</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -3505,13 +3493,13 @@
         <v>23922</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,10 +3519,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3543,13 +3531,13 @@
         <v>8014</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3558,13 +3546,13 @@
         <v>9160</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3594,13 +3582,13 @@
         <v>3562</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3609,13 +3597,13 @@
         <v>3562</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3618,13 @@
         <v>1146</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3645,13 +3633,13 @@
         <v>11576</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -3660,18 +3648,18 @@
         <v>12722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3683,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3698,13 +3686,13 @@
         <v>3198</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3713,13 +3701,13 @@
         <v>3198</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,10 +3725,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3749,13 +3737,13 @@
         <v>36438</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -3764,13 +3752,13 @@
         <v>41336</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3773,13 @@
         <v>4897</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -3800,13 +3788,13 @@
         <v>39636</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -3815,18 +3803,18 @@
         <v>44534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3838,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3853,13 +3841,13 @@
         <v>9388</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3868,13 +3856,13 @@
         <v>9388</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,10 +3880,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3904,13 +3892,13 @@
         <v>20413</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -3919,13 +3907,13 @@
         <v>26696</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3928,13 @@
         <v>6283</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
@@ -3955,13 +3943,13 @@
         <v>29801</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -3970,18 +3958,18 @@
         <v>36084</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3993,13 +3981,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4008,13 +3996,13 @@
         <v>3146</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4023,13 +4011,13 @@
         <v>3146</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,10 +4035,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4059,13 +4047,13 @@
         <v>3702</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4074,13 +4062,13 @@
         <v>7667</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4083,13 @@
         <v>3966</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -4110,13 +4098,13 @@
         <v>6848</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -4125,18 +4113,18 @@
         <v>10813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4148,13 +4136,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4163,13 +4151,13 @@
         <v>5846</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4178,13 +4166,13 @@
         <v>5846</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,10 +4190,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4214,13 +4202,13 @@
         <v>8427</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -4229,13 +4217,13 @@
         <v>11354</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4238,13 @@
         <v>2928</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -4265,13 +4253,13 @@
         <v>14273</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -4280,18 +4268,18 @@
         <v>17200</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4303,13 +4291,13 @@
         <v>2861</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -4318,13 +4306,13 @@
         <v>18133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4333,13 +4321,13 @@
         <v>20995</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4342,13 @@
         <v>11667</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4369,13 +4357,13 @@
         <v>20700</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -4384,13 +4372,13 @@
         <v>32366</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4393,13 @@
         <v>14528</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -4420,13 +4408,13 @@
         <v>38833</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -4435,18 +4423,18 @@
         <v>53361</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4458,13 +4446,13 @@
         <v>2458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4473,13 +4461,13 @@
         <v>16661</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4488,13 +4476,13 @@
         <v>19119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,10 +4497,10 @@
         <v>12478</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -4524,13 +4512,13 @@
         <v>40365</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -4539,13 +4527,13 @@
         <v>52843</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4548,13 @@
         <v>14936</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>48</v>
@@ -4575,13 +4563,13 @@
         <v>57026</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>62</v>
@@ -4590,13 +4578,13 @@
         <v>71962</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4601,13 @@
         <v>6466</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -4628,13 +4616,13 @@
         <v>67443</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -4643,13 +4631,13 @@
         <v>73908</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4652,13 @@
         <v>45875</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H29" s="7">
         <v>131</v>
@@ -4679,13 +4667,13 @@
         <v>150815</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M29" s="7">
         <v>175</v>
@@ -4694,13 +4682,13 @@
         <v>196691</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4703,13 @@
         <v>52341</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>187</v>
@@ -4730,13 +4718,13 @@
         <v>218258</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>237</v>
@@ -4745,18 +4733,18 @@
         <v>270599</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4780,7 +4768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8497636C-61B3-44E0-8A07-91C5F68BB5B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9D3E92-5CFA-4C24-8D92-1FD83425A06D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4797,7 +4785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4904,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4919,13 +4907,13 @@
         <v>1039</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4934,13 +4922,13 @@
         <v>1039</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,10 +4946,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4970,13 +4958,13 @@
         <v>3858</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4985,13 +4973,13 @@
         <v>6202</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4994,13 @@
         <v>2344</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5021,13 +5009,13 @@
         <v>4897</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -5036,13 +5024,13 @@
         <v>7241</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5047,13 @@
         <v>853</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -5074,13 +5062,13 @@
         <v>19045</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -5089,13 +5077,13 @@
         <v>19898</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,10 +5098,10 @@
         <v>13306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -5125,13 +5113,13 @@
         <v>37718</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>66</v>
@@ -5140,13 +5128,13 @@
         <v>51024</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5149,13 @@
         <v>14159</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -5176,13 +5164,13 @@
         <v>56763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -5191,18 +5179,18 @@
         <v>70922</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5214,13 +5202,13 @@
         <v>5390</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5229,13 +5217,13 @@
         <v>10145</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5244,13 +5232,13 @@
         <v>15535</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5253,13 @@
         <v>7633</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -5280,13 +5268,13 @@
         <v>20155</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
@@ -5295,13 +5283,13 @@
         <v>27788</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5304,13 @@
         <v>13023</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -5331,13 +5319,13 @@
         <v>30300</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -5346,18 +5334,18 @@
         <v>43323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5369,13 +5357,13 @@
         <v>3640</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5384,13 +5372,13 @@
         <v>9924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5399,13 +5387,13 @@
         <v>13563</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5408,13 @@
         <v>3172</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -5435,13 +5423,13 @@
         <v>17449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -5450,13 +5438,13 @@
         <v>20621</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5459,13 @@
         <v>6812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -5486,13 +5474,13 @@
         <v>27373</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -5501,18 +5489,18 @@
         <v>34184</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5524,13 +5512,13 @@
         <v>2416</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5539,13 +5527,13 @@
         <v>12310</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -5554,13 +5542,13 @@
         <v>14726</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5563,13 @@
         <v>10354</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -5590,13 +5578,13 @@
         <v>34467</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -5605,13 +5593,13 @@
         <v>44820</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5614,13 @@
         <v>12770</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>110</v>
@@ -5641,13 +5629,13 @@
         <v>46777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -5656,18 +5644,18 @@
         <v>59546</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5679,13 +5667,13 @@
         <v>5638</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -5694,13 +5682,13 @@
         <v>13125</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -5709,13 +5697,13 @@
         <v>18763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5718,13 @@
         <v>5357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -5745,13 +5733,13 @@
         <v>27047</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -5760,13 +5748,13 @@
         <v>32403</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,13 +5769,13 @@
         <v>10995</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -5796,13 +5784,13 @@
         <v>40172</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>105</v>
@@ -5811,18 +5799,18 @@
         <v>51166</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5834,13 +5822,13 @@
         <v>12879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -5849,13 +5837,13 @@
         <v>45135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -5864,13 +5852,13 @@
         <v>58014</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5873,13 @@
         <v>42339</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H23" s="7">
         <v>164</v>
@@ -5900,13 +5888,13 @@
         <v>107091</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>391</v>
+        <v>85</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -5915,13 +5903,13 @@
         <v>149430</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5924,13 @@
         <v>55218</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>227</v>
@@ -5951,13 +5939,13 @@
         <v>152226</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>289</v>
@@ -5966,18 +5954,18 @@
         <v>207444</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5989,13 +5977,13 @@
         <v>2196</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -6004,13 +5992,13 @@
         <v>12662</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -6019,13 +6007,13 @@
         <v>14858</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,10 +6028,10 @@
         <v>10603</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -6055,13 +6043,13 @@
         <v>27402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -6070,13 +6058,13 @@
         <v>38004</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6079,13 @@
         <v>12799</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -6106,13 +6094,13 @@
         <v>40064</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>68</v>
@@ -6121,13 +6109,13 @@
         <v>52862</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6132,13 @@
         <v>33010</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>204</v>
@@ -6159,13 +6147,13 @@
         <v>123384</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M28" s="7">
         <v>248</v>
@@ -6174,13 +6162,13 @@
         <v>156395</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6183,13 @@
         <v>95109</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H29" s="7">
         <v>473</v>
@@ -6210,13 +6198,13 @@
         <v>275186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M29" s="7">
         <v>587</v>
@@ -6225,13 +6213,13 @@
         <v>370294</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,13 +6234,13 @@
         <v>128119</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>677</v>
@@ -6261,13 +6249,13 @@
         <v>398570</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>835</v>
@@ -6276,18 +6264,18 @@
         <v>526689</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B19-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B19-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C347CB-8F63-4F61-9F10-D83014057043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9829B15-8343-4AA4-85CE-8337F2264F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13B0CF87-FC75-459B-B3BD-C115252FEE7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD704BDC-B3EE-4C61-B4E4-025D4C1A8D99}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="423">
   <si>
     <t>Población cuyas varices en las piernas le limita en 2012 (Tasa respuesta: 4,73%)</t>
   </si>
@@ -85,7 +85,7 @@
     <t>85,45%</t>
   </si>
   <si>
-    <t>31,9%</t>
+    <t>32,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,16 +94,19 @@
     <t>67,41%</t>
   </si>
   <si>
-    <t>48,14%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>14,55%</t>
@@ -112,22 +115,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>68,1%</t>
+    <t>67,52%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>51,86%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,19 +151,19 @@
     <t>36,41%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>44,91%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
   </si>
   <si>
     <t>25,29%</t>
@@ -169,19 +175,19 @@
     <t>63,59%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>55,09%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -196,19 +202,19 @@
     <t>41,16%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -217,19 +223,19 @@
     <t>58,84%</t>
   </si>
   <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
   </si>
   <si>
     <t>62,14%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -238,967 +244,955 @@
     <t>78,9%</t>
   </si>
   <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas varices en las piernas le limita en 2016 (Tasa respuesta: 3,61%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
   </si>
   <si>
     <t>80,3%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>63,73%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas varices en las piernas le limita en 2015 (Tasa respuesta: 3,61%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
   </si>
   <si>
     <t>76,87%</t>
@@ -1724,7 +1718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C79EB2-F0B7-4334-80C3-A3D80FB95239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841BA204-C76A-453C-9091-CB39DB4FE4C2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2006,7 +2000,7 @@
         <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -2015,13 +2009,13 @@
         <v>26718</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,13 +2030,13 @@
         <v>1041</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -2051,13 +2045,13 @@
         <v>9960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -2066,13 +2060,13 @@
         <v>11001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2081,13 @@
         <v>7153</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -2102,13 +2096,13 @@
         <v>30566</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>33</v>
@@ -2117,18 +2111,18 @@
         <v>37719</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2140,10 +2134,10 @@
         <v>3098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2155,13 +2149,13 @@
         <v>5299</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2170,13 +2164,13 @@
         <v>8397</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2185,13 @@
         <v>1049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2206,13 +2200,13 @@
         <v>9253</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2221,13 +2215,13 @@
         <v>10302</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2236,13 @@
         <v>4147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -2257,13 +2251,13 @@
         <v>14552</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -2272,18 +2266,18 @@
         <v>18699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2295,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2310,13 +2304,13 @@
         <v>25149</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2325,13 +2319,13 @@
         <v>25149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,10 +2343,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -2361,13 +2355,13 @@
         <v>35950</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -2376,13 +2370,13 @@
         <v>41283</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2391,13 @@
         <v>5333</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -2412,13 +2406,13 @@
         <v>61099</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>59</v>
@@ -2427,18 +2421,18 @@
         <v>66432</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2450,10 +2444,10 @@
         <v>4238</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2465,13 +2459,13 @@
         <v>18745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -2480,13 +2474,13 @@
         <v>22984</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2495,13 @@
         <v>1134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2516,13 +2510,13 @@
         <v>18602</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -2531,13 +2525,13 @@
         <v>19736</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2546,13 @@
         <v>5372</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -2567,13 +2561,13 @@
         <v>37347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -2582,18 +2576,18 @@
         <v>42720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2605,10 +2599,10 @@
         <v>1057</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -2620,13 +2614,13 @@
         <v>9211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2635,13 +2629,13 @@
         <v>10268</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,10 +2650,10 @@
         <v>1978</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -2671,13 +2665,13 @@
         <v>13148</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2686,13 +2680,13 @@
         <v>15127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2701,13 @@
         <v>3035</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -2722,13 +2716,13 @@
         <v>22359</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -2737,18 +2731,18 @@
         <v>25395</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2760,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -2775,13 +2769,13 @@
         <v>27842</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2790,13 +2784,13 @@
         <v>27843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,10 +2808,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -2826,13 +2820,13 @@
         <v>41089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -2841,13 +2835,13 @@
         <v>47379</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2856,13 @@
         <v>6291</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -2877,13 +2871,13 @@
         <v>68931</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>69</v>
@@ -2892,18 +2886,18 @@
         <v>75222</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2915,13 +2909,13 @@
         <v>4392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -2930,13 +2924,13 @@
         <v>31255</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -2945,13 +2939,13 @@
         <v>35647</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2960,13 @@
         <v>4050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -2981,13 +2975,13 @@
         <v>28143</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -2996,13 +2990,13 @@
         <v>32193</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3011,13 @@
         <v>8442</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -3032,13 +3026,13 @@
         <v>59398</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>63</v>
@@ -3047,13 +3041,13 @@
         <v>67840</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3100,7 @@
         <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3115,13 @@
         <v>20875</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>144</v>
@@ -3136,13 +3130,13 @@
         <v>156145</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>162</v>
@@ -3151,13 +3145,13 @@
         <v>177021</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3166,13 @@
         <v>39773</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>273</v>
@@ -3187,13 +3181,13 @@
         <v>294253</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>308</v>
@@ -3202,18 +3196,18 @@
         <v>334026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3237,7 +3231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE43579D-035E-481E-83CB-793C30909956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA85A424-764F-4A52-BD73-B5488ABD20D0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3254,7 +3248,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3361,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3376,13 +3370,13 @@
         <v>3056</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3391,13 +3385,13 @@
         <v>3056</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,10 +3409,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -3427,13 +3421,13 @@
         <v>17208</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3442,13 +3436,13 @@
         <v>20866</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3457,13 @@
         <v>3657</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3478,13 +3472,13 @@
         <v>20264</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -3493,13 +3487,13 @@
         <v>23922</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,10 +3513,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3531,13 +3525,13 @@
         <v>8014</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3546,13 +3540,13 @@
         <v>9160</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3582,13 +3576,13 @@
         <v>3562</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3597,13 +3591,13 @@
         <v>3562</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3612,13 @@
         <v>1146</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3633,13 +3627,13 @@
         <v>11576</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -3648,18 +3642,18 @@
         <v>12722</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3671,13 +3665,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3686,13 +3680,13 @@
         <v>3198</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3701,13 +3695,13 @@
         <v>3198</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,10 +3719,10 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -3737,13 +3731,13 @@
         <v>36438</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -3752,13 +3746,13 @@
         <v>41336</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3767,13 @@
         <v>4897</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -3788,13 +3782,13 @@
         <v>39636</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -3803,18 +3797,18 @@
         <v>44534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3826,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3841,13 +3835,13 @@
         <v>9388</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3856,13 +3850,13 @@
         <v>9388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,10 +3874,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3892,13 +3886,13 @@
         <v>20413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -3907,13 +3901,13 @@
         <v>26696</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3922,13 @@
         <v>6283</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>24</v>
@@ -3943,13 +3937,13 @@
         <v>29801</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -3958,18 +3952,18 @@
         <v>36084</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3981,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3996,13 +3990,13 @@
         <v>3146</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4011,13 +4005,13 @@
         <v>3146</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,10 +4029,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4047,13 +4041,13 @@
         <v>3702</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4062,13 +4056,13 @@
         <v>7667</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4077,13 @@
         <v>3966</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -4098,13 +4092,13 @@
         <v>6848</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -4113,18 +4107,18 @@
         <v>10813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4136,13 +4130,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -4151,13 +4145,13 @@
         <v>5846</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4166,13 +4160,13 @@
         <v>5846</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,10 +4184,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4202,13 +4196,13 @@
         <v>8427</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -4217,13 +4211,13 @@
         <v>11354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4232,13 @@
         <v>2928</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -4253,13 +4247,13 @@
         <v>14273</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -4268,18 +4262,18 @@
         <v>17200</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4291,13 +4285,13 @@
         <v>2861</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -4306,13 +4300,13 @@
         <v>18133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4321,13 +4315,13 @@
         <v>20995</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4336,13 @@
         <v>11667</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4357,13 +4351,13 @@
         <v>20700</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -4372,13 +4366,13 @@
         <v>32366</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4387,13 @@
         <v>14528</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -4408,13 +4402,13 @@
         <v>38833</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>48</v>
@@ -4423,18 +4417,18 @@
         <v>53361</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4446,13 +4440,13 @@
         <v>2458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -4461,13 +4455,13 @@
         <v>16661</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4476,13 +4470,13 @@
         <v>19119</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,10 +4491,10 @@
         <v>12478</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -4512,13 +4506,13 @@
         <v>40365</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -4527,13 +4521,13 @@
         <v>52843</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4542,13 @@
         <v>14936</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>48</v>
@@ -4563,13 +4557,13 @@
         <v>57026</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>62</v>
@@ -4578,13 +4572,13 @@
         <v>71962</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4595,13 @@
         <v>6466</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -4616,13 +4610,13 @@
         <v>67443</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -4631,13 +4625,13 @@
         <v>73908</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4646,13 @@
         <v>45875</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H29" s="7">
         <v>131</v>
@@ -4667,13 +4661,13 @@
         <v>150815</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M29" s="7">
         <v>175</v>
@@ -4682,13 +4676,13 @@
         <v>196691</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4697,13 @@
         <v>52341</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>187</v>
@@ -4718,13 +4712,13 @@
         <v>218258</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>237</v>
@@ -4733,18 +4727,18 @@
         <v>270599</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4768,7 +4762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9D3E92-5CFA-4C24-8D92-1FD83425A06D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4AFE97-18CF-450F-A25F-9E36F666DAB1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4785,7 +4779,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4892,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4907,13 +4901,13 @@
         <v>1039</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4922,13 +4916,13 @@
         <v>1039</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,10 +4940,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4958,13 +4952,13 @@
         <v>3858</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4973,13 +4967,13 @@
         <v>6202</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4988,13 @@
         <v>2344</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5009,13 +5003,13 @@
         <v>4897</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -5024,13 +5018,13 @@
         <v>7241</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5041,13 @@
         <v>853</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -5062,13 +5056,13 @@
         <v>19045</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -5077,13 +5071,13 @@
         <v>19898</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,10 +5092,10 @@
         <v>13306</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -5113,13 +5107,13 @@
         <v>37718</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>66</v>
@@ -5128,13 +5122,13 @@
         <v>51024</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5143,13 @@
         <v>14159</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -5164,13 +5158,13 @@
         <v>56763</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -5179,18 +5173,18 @@
         <v>70922</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5202,13 +5196,13 @@
         <v>5390</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5217,13 +5211,13 @@
         <v>10145</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5232,13 +5226,13 @@
         <v>15535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5247,13 @@
         <v>7633</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -5268,13 +5262,13 @@
         <v>20155</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>46</v>
@@ -5283,13 +5277,13 @@
         <v>27788</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5298,13 @@
         <v>13023</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -5319,13 +5313,13 @@
         <v>30300</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -5334,18 +5328,18 @@
         <v>43323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5357,13 +5351,13 @@
         <v>3640</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5372,13 +5366,13 @@
         <v>9924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -5387,13 +5381,13 @@
         <v>13563</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5402,13 @@
         <v>3172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -5423,13 +5417,13 @@
         <v>17449</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -5438,13 +5432,13 @@
         <v>20621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5453,13 @@
         <v>6812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -5474,13 +5468,13 @@
         <v>27373</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -5489,18 +5483,18 @@
         <v>34184</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5512,13 +5506,13 @@
         <v>2416</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -5527,13 +5521,13 @@
         <v>12310</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -5542,13 +5536,13 @@
         <v>14726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5557,13 @@
         <v>10354</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>84</v>
@@ -5578,13 +5572,13 @@
         <v>34467</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -5593,13 +5587,13 @@
         <v>44820</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5608,13 @@
         <v>12770</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7">
         <v>110</v>
@@ -5629,13 +5623,13 @@
         <v>46777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -5644,18 +5638,18 @@
         <v>59546</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5667,13 +5661,13 @@
         <v>5638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -5682,13 +5676,13 @@
         <v>13125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -5697,10 +5691,10 @@
         <v>18763</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>130</v>
@@ -5718,13 +5712,13 @@
         <v>5357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H20" s="7">
         <v>54</v>
@@ -5733,13 +5727,13 @@
         <v>27047</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -5748,13 +5742,13 @@
         <v>32403</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5763,13 @@
         <v>10995</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -5784,13 +5778,13 @@
         <v>40172</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21" s="7">
         <v>105</v>
@@ -5799,18 +5793,18 @@
         <v>51166</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5822,13 +5816,13 @@
         <v>12879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -5837,13 +5831,13 @@
         <v>45135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -5852,13 +5846,13 @@
         <v>58014</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5867,13 @@
         <v>42339</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>164</v>
@@ -5888,13 +5882,13 @@
         <v>107091</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>85</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>211</v>
@@ -5903,13 +5897,13 @@
         <v>149430</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5918,13 @@
         <v>55218</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24" s="7">
         <v>227</v>
@@ -5939,13 +5933,13 @@
         <v>152226</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M24" s="7">
         <v>289</v>
@@ -5954,18 +5948,18 @@
         <v>207444</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5977,13 +5971,13 @@
         <v>2196</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -5992,13 +5986,13 @@
         <v>12662</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -6007,13 +6001,13 @@
         <v>14858</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,10 +6022,10 @@
         <v>10603</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -6043,13 +6037,13 @@
         <v>27402</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -6058,13 +6052,13 @@
         <v>38004</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6073,13 @@
         <v>12799</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H27" s="7">
         <v>55</v>
@@ -6094,13 +6088,13 @@
         <v>40064</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M27" s="7">
         <v>68</v>
@@ -6109,13 +6103,13 @@
         <v>52862</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6126,13 @@
         <v>33010</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>204</v>
@@ -6147,13 +6141,13 @@
         <v>123384</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M28" s="7">
         <v>248</v>
@@ -6162,13 +6156,13 @@
         <v>156395</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6177,13 @@
         <v>95109</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H29" s="7">
         <v>473</v>
@@ -6198,13 +6192,13 @@
         <v>275186</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M29" s="7">
         <v>587</v>
@@ -6213,13 +6207,13 @@
         <v>370294</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6228,13 @@
         <v>128119</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H30" s="7">
         <v>677</v>
@@ -6249,13 +6243,13 @@
         <v>398570</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>835</v>
@@ -6264,18 +6258,18 @@
         <v>526689</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
